--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H2">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N2">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O2">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P2">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q2">
-        <v>84.18321228755555</v>
+        <v>118.9776961125253</v>
       </c>
       <c r="R2">
-        <v>757.6489105879999</v>
+        <v>1070.799265012728</v>
       </c>
       <c r="S2">
-        <v>0.02457066544314751</v>
+        <v>0.02992666063578108</v>
       </c>
       <c r="T2">
-        <v>0.0245706654431475</v>
+        <v>0.02992666063578109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H3">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>166.821129</v>
       </c>
       <c r="O3">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P3">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q3">
-        <v>135.757848496616</v>
+        <v>153.891045719382</v>
       </c>
       <c r="R3">
-        <v>1221.820636469544</v>
+        <v>1385.019411474438</v>
       </c>
       <c r="S3">
-        <v>0.03962382268447785</v>
+        <v>0.03870847436626888</v>
       </c>
       <c r="T3">
-        <v>0.03962382268447783</v>
+        <v>0.03870847436626889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H4">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N4">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O4">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P4">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q4">
-        <v>74.23005325656888</v>
+        <v>101.6414327191</v>
       </c>
       <c r="R4">
-        <v>668.0704793091198</v>
+        <v>914.7728944719001</v>
       </c>
       <c r="S4">
-        <v>0.02166562376075773</v>
+        <v>0.02556604105564671</v>
       </c>
       <c r="T4">
-        <v>0.02166562376075773</v>
+        <v>0.02556604105564672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H5">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N5">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O5">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P5">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q5">
-        <v>16.50464262780267</v>
+        <v>20.42814438567067</v>
       </c>
       <c r="R5">
-        <v>148.541783650224</v>
+        <v>183.853299471036</v>
       </c>
       <c r="S5">
-        <v>0.004817231859497455</v>
+        <v>0.005138325622564676</v>
       </c>
       <c r="T5">
-        <v>0.004817231859497454</v>
+        <v>0.005138325622564678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H6">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N6">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O6">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P6">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q6">
-        <v>73.03308191698223</v>
+        <v>79.15086523458267</v>
       </c>
       <c r="R6">
-        <v>657.29773725284</v>
+        <v>712.3577871112441</v>
       </c>
       <c r="S6">
-        <v>0.02131626215372427</v>
+        <v>0.01990895067142279</v>
       </c>
       <c r="T6">
-        <v>0.02131626215372426</v>
+        <v>0.0199089506714228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N7">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O7">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P7">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q7">
-        <v>444.3252723542222</v>
+        <v>553.9781975823182</v>
       </c>
       <c r="R7">
-        <v>3998.927451188</v>
+        <v>4985.803778240864</v>
       </c>
       <c r="S7">
-        <v>0.1296858045480507</v>
+        <v>0.1393430706792985</v>
       </c>
       <c r="T7">
-        <v>0.1296858045480507</v>
+        <v>0.1393430706792985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>166.821129</v>
       </c>
       <c r="O8">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P8">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q8">
         <v>716.540048405816</v>
       </c>
       <c r="R8">
-        <v>6448.860435652345</v>
+        <v>6448.860435652344</v>
       </c>
       <c r="S8">
-        <v>0.2091374910458083</v>
+        <v>0.1802325272823091</v>
       </c>
       <c r="T8">
-        <v>0.2091374910458082</v>
+        <v>0.1802325272823091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N9">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O9">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P9">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q9">
-        <v>391.7917567392356</v>
+        <v>473.2579259574667</v>
       </c>
       <c r="R9">
-        <v>3526.12581065312</v>
+        <v>4259.3213336172</v>
       </c>
       <c r="S9">
-        <v>0.1143527779070726</v>
+        <v>0.1190393645707156</v>
       </c>
       <c r="T9">
-        <v>0.1143527779070726</v>
+        <v>0.1190393645707156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N10">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O10">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P10">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q10">
-        <v>87.11273461100267</v>
+        <v>95.11653844786311</v>
       </c>
       <c r="R10">
-        <v>784.0146114990241</v>
+        <v>856.048846030768</v>
       </c>
       <c r="S10">
-        <v>0.02542570899591404</v>
+        <v>0.02392482339116126</v>
       </c>
       <c r="T10">
-        <v>0.02542570899591404</v>
+        <v>0.02392482339116127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N11">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O11">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P11">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q11">
-        <v>385.4740527456489</v>
+        <v>368.5384327686525</v>
       </c>
       <c r="R11">
-        <v>3469.26647471084</v>
+        <v>3316.845894917872</v>
       </c>
       <c r="S11">
-        <v>0.1125088212917677</v>
+        <v>0.09269909377198805</v>
       </c>
       <c r="T11">
-        <v>0.1125088212917677</v>
+        <v>0.09269909377198807</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H12">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I12">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J12">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N12">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O12">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P12">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q12">
-        <v>223.1702528168334</v>
+        <v>1.471668689242222</v>
       </c>
       <c r="R12">
-        <v>2008.5322753515</v>
+        <v>13.24501820318</v>
       </c>
       <c r="S12">
-        <v>0.0651369966745217</v>
+        <v>0.0003701713083232264</v>
       </c>
       <c r="T12">
-        <v>0.06513699667452168</v>
+        <v>0.0003701713083232265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H13">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I13">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J13">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>166.821129</v>
       </c>
       <c r="O13">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P13">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q13">
-        <v>359.8949546777731</v>
+        <v>1.903521760295</v>
       </c>
       <c r="R13">
-        <v>3239.054592099958</v>
+        <v>17.131695842655</v>
       </c>
       <c r="S13">
-        <v>0.1050430161284247</v>
+        <v>0.0004787960398837811</v>
       </c>
       <c r="T13">
-        <v>0.1050430161284247</v>
+        <v>0.0004787960398837813</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H14">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I14">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J14">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N14">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O14">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P14">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q14">
-        <v>196.7843623653733</v>
+        <v>1.257231556416667</v>
       </c>
       <c r="R14">
-        <v>1771.05926128836</v>
+        <v>11.31508400775</v>
       </c>
       <c r="S14">
-        <v>0.05743571195176941</v>
+        <v>0.0003162335745171276</v>
       </c>
       <c r="T14">
-        <v>0.05743571195176939</v>
+        <v>0.0003162335745171276</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H15">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I15">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J15">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N15">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O15">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P15">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q15">
-        <v>43.75391681795801</v>
+        <v>0.2526814811011111</v>
       </c>
       <c r="R15">
-        <v>393.785251361622</v>
+        <v>2.27413332991</v>
       </c>
       <c r="S15">
-        <v>0.01277051353527731</v>
+        <v>6.355739925160144E-05</v>
       </c>
       <c r="T15">
-        <v>0.01277051353527731</v>
+        <v>6.355739925160147E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H16">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I16">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J16">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N16">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O16">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P16">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q16">
-        <v>193.6111834237384</v>
+        <v>0.9790393821544445</v>
       </c>
       <c r="R16">
-        <v>1742.500650813645</v>
+        <v>8.81135443939</v>
       </c>
       <c r="S16">
-        <v>0.05650955201978877</v>
+        <v>0.0002462594275744793</v>
       </c>
       <c r="T16">
-        <v>0.05650955201978876</v>
+        <v>0.0002462594275744794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.520146</v>
+      </c>
+      <c r="H17">
+        <v>22.560438</v>
+      </c>
+      <c r="I17">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J17">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>42.99144133333333</v>
+      </c>
+      <c r="N17">
+        <v>128.974324</v>
+      </c>
+      <c r="O17">
+        <v>0.2509605789056467</v>
+      </c>
+      <c r="P17">
+        <v>0.2509605789056467</v>
+      </c>
+      <c r="Q17">
+        <v>323.3019155771013</v>
+      </c>
+      <c r="R17">
+        <v>2909.717240193911</v>
+      </c>
+      <c r="S17">
+        <v>0.08132067628224385</v>
+      </c>
+      <c r="T17">
+        <v>0.08132067628224388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.520146</v>
+      </c>
+      <c r="H18">
+        <v>22.560438</v>
+      </c>
+      <c r="I18">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J18">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>55.607043</v>
+      </c>
+      <c r="N18">
+        <v>166.821129</v>
+      </c>
+      <c r="O18">
+        <v>0.3246035785195009</v>
+      </c>
+      <c r="P18">
+        <v>0.324603578519501</v>
+      </c>
+      <c r="Q18">
+        <v>418.1730819882779</v>
+      </c>
+      <c r="R18">
+        <v>3763.557737894501</v>
+      </c>
+      <c r="S18">
+        <v>0.1051837808310392</v>
+      </c>
+      <c r="T18">
+        <v>0.1051837808310392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.520146</v>
+      </c>
+      <c r="H19">
+        <v>22.560438</v>
+      </c>
+      <c r="I19">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J19">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>36.72715</v>
+      </c>
+      <c r="N19">
+        <v>110.18145</v>
+      </c>
+      <c r="O19">
+        <v>0.2143930638214748</v>
+      </c>
+      <c r="P19">
+        <v>0.2143930638214748</v>
+      </c>
+      <c r="Q19">
+        <v>276.1935301639</v>
+      </c>
+      <c r="R19">
+        <v>2485.7417714751</v>
+      </c>
+      <c r="S19">
+        <v>0.06947142462059532</v>
+      </c>
+      <c r="T19">
+        <v>0.06947142462059533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.520146</v>
+      </c>
+      <c r="H20">
+        <v>22.560438</v>
+      </c>
+      <c r="I20">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J20">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.381512666666667</v>
+      </c>
+      <c r="N20">
+        <v>22.144538</v>
+      </c>
+      <c r="O20">
+        <v>0.04308924368603855</v>
+      </c>
+      <c r="P20">
+        <v>0.04308924368603857</v>
+      </c>
+      <c r="Q20">
+        <v>55.51005295418266</v>
+      </c>
+      <c r="R20">
+        <v>499.590476587644</v>
+      </c>
+      <c r="S20">
+        <v>0.01396253727306101</v>
+      </c>
+      <c r="T20">
+        <v>0.01396253727306102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.520146</v>
+      </c>
+      <c r="H21">
+        <v>22.560438</v>
+      </c>
+      <c r="I21">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J21">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>28.60040066666667</v>
+      </c>
+      <c r="N21">
+        <v>85.801202</v>
+      </c>
+      <c r="O21">
+        <v>0.1669535350673389</v>
+      </c>
+      <c r="P21">
+        <v>0.1669535350673389</v>
+      </c>
+      <c r="Q21">
+        <v>215.0791886718307</v>
+      </c>
+      <c r="R21">
+        <v>1935.712698046476</v>
+      </c>
+      <c r="S21">
+        <v>0.05409923119635358</v>
+      </c>
+      <c r="T21">
+        <v>0.05409923119635359</v>
       </c>
     </row>
   </sheetData>
